--- a/Auswertung/Case_vgl_Dorfnetz/cases_dorf_dist.xlsx
+++ b/Auswertung/Case_vgl_Dorfnetz/cases_dorf_dist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrissi\Git\Flexigrid\Auswertung\Case_vgl_Dorfnetz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EECA2D-3CCD-46F0-A2C9-D18C579FF39D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DAED32-0A6C-4733-AA7B-ABF193946BDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3551,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6264,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G9" activeCellId="2" sqref="G5 G7 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6363,7 +6363,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
@@ -6381,7 +6381,7 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
@@ -6427,7 +6427,7 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
@@ -6473,7 +6473,7 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
@@ -6795,7 +6795,7 @@
       <c r="F23">
         <v>21</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
@@ -6841,7 +6841,7 @@
       <c r="F25">
         <v>23</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
@@ -6887,7 +6887,7 @@
       <c r="F27">
         <v>25</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
@@ -7209,7 +7209,7 @@
       <c r="F41">
         <v>39</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
@@ -7255,7 +7255,7 @@
       <c r="F43">
         <v>41</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
@@ -7301,7 +7301,7 @@
       <c r="F45">
         <v>43</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
@@ -7347,7 +7347,7 @@
       <c r="F47">
         <v>45</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
@@ -7945,7 +7945,7 @@
       <c r="F73">
         <v>71</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
@@ -7991,7 +7991,7 @@
       <c r="F75">
         <v>73</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
@@ -8037,7 +8037,7 @@
       <c r="F77">
         <v>75</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
@@ -8497,7 +8497,7 @@
       <c r="F97">
         <v>95</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
@@ -8543,7 +8543,7 @@
       <c r="F99">
         <v>97</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
@@ -8589,7 +8589,7 @@
       <c r="F101">
         <v>99</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
@@ -8819,7 +8819,7 @@
       <c r="F111">
         <v>109</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -8976,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView topLeftCell="A84" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A21" activeCellId="3" sqref="A7 G7 G21 A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9121,7 +9121,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
@@ -9139,7 +9139,7 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
@@ -9461,7 +9461,7 @@
       <c r="F21">
         <v>19</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -9535,7 +9535,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
@@ -9553,7 +9553,7 @@
       <c r="F25">
         <v>23</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
@@ -9645,7 +9645,7 @@
       <c r="F29">
         <v>27</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -9719,7 +9719,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
@@ -9737,7 +9737,7 @@
       <c r="F33">
         <v>31</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
@@ -9829,7 +9829,7 @@
       <c r="F37">
         <v>35</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
@@ -10151,7 +10151,7 @@
       <c r="F51">
         <v>49</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10363,7 +10363,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
@@ -10381,7 +10381,7 @@
       <c r="F61">
         <v>59</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10455,7 +10455,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
@@ -10473,7 +10473,7 @@
       <c r="F65">
         <v>63</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
@@ -10657,7 +10657,7 @@
       <c r="F73">
         <v>71</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
@@ -10703,7 +10703,7 @@
       <c r="F75">
         <v>73</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
@@ -10841,7 +10841,7 @@
       <c r="F81">
         <v>79</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
@@ -10887,7 +10887,7 @@
       <c r="F83">
         <v>81</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
@@ -10979,7 +10979,7 @@
       <c r="F87">
         <v>85</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
@@ -11347,7 +11347,7 @@
       <c r="F103">
         <v>101</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
@@ -11393,7 +11393,7 @@
       <c r="F105">
         <v>103</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
@@ -11467,7 +11467,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
@@ -11485,7 +11485,7 @@
       <c r="F109">
         <v>107</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1">
         <v>53.897590855222603</v>
       </c>
     </row>
